--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="2322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6380" uniqueCount="2437">
   <si>
     <t>FileID</t>
   </si>
@@ -7007,6 +7007,351 @@
   </si>
   <si>
     <t>Bearer XVbj8gzfdSCuxIBCU7GbPSpXziwW3K</t>
+  </si>
+  <si>
+    <t>Bearer 7bzNiUXgybXBd0kRlzNoPyYhHJ2VuN</t>
+  </si>
+  <si>
+    <t>Lodging: Hotel/Motel/Resort, Select Service</t>
+  </si>
+  <si>
+    <t>Religious</t>
+  </si>
+  <si>
+    <t>API Project-US58102</t>
+  </si>
+  <si>
+    <t>1000090959</t>
+  </si>
+  <si>
+    <t>UZo3wplJMnSzdqO1p9OwuPVK</t>
+  </si>
+  <si>
+    <t>0000000010000000000433598</t>
+  </si>
+  <si>
+    <t>E9B99755DC4AFDF1823A0AF82116B5DF</t>
+  </si>
+  <si>
+    <t>E9B99755DC4AFFF1823A0AF82116B5DF</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000090959</t>
+  </si>
+  <si>
+    <t>2004620</t>
+  </si>
+  <si>
+    <t>15303541</t>
+  </si>
+  <si>
+    <t>539276</t>
+  </si>
+  <si>
+    <t>38672</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>Bearer wpgsnLU9Wu59UFKPXZHliKOaFlC6F3</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Warehouse: Self Storage Units</t>
+  </si>
+  <si>
+    <t>Government Use: Local, County</t>
+  </si>
+  <si>
+    <t>API Project-US24151</t>
+  </si>
+  <si>
+    <t>1000169656</t>
+  </si>
+  <si>
+    <t>aF1bbvVwiLL2LsCmO8FiQFpw</t>
+  </si>
+  <si>
+    <t>965100</t>
+  </si>
+  <si>
+    <t>7104351</t>
+  </si>
+  <si>
+    <t>7104352</t>
+  </si>
+  <si>
+    <t>7104353</t>
+  </si>
+  <si>
+    <t>7104354</t>
+  </si>
+  <si>
+    <t>7104355</t>
+  </si>
+  <si>
+    <t>7104356</t>
+  </si>
+  <si>
+    <t>7104357</t>
+  </si>
+  <si>
+    <t>7104358</t>
+  </si>
+  <si>
+    <t>7104359</t>
+  </si>
+  <si>
+    <t>7104360</t>
+  </si>
+  <si>
+    <t>7104361</t>
+  </si>
+  <si>
+    <t>7104362</t>
+  </si>
+  <si>
+    <t>7104363</t>
+  </si>
+  <si>
+    <t>7104364</t>
+  </si>
+  <si>
+    <t>7104365</t>
+  </si>
+  <si>
+    <t>7104366</t>
+  </si>
+  <si>
+    <t>7104367</t>
+  </si>
+  <si>
+    <t>7104368</t>
+  </si>
+  <si>
+    <t>7104369</t>
+  </si>
+  <si>
+    <t>7104370</t>
+  </si>
+  <si>
+    <t>7104371</t>
+  </si>
+  <si>
+    <t>7104372</t>
+  </si>
+  <si>
+    <t>7104373</t>
+  </si>
+  <si>
+    <t>7104374</t>
+  </si>
+  <si>
+    <t>7104375</t>
+  </si>
+  <si>
+    <t>7104376</t>
+  </si>
+  <si>
+    <t>7104377</t>
+  </si>
+  <si>
+    <t>7104378</t>
+  </si>
+  <si>
+    <t>7104379</t>
+  </si>
+  <si>
+    <t>7104380</t>
+  </si>
+  <si>
+    <t>7104381</t>
+  </si>
+  <si>
+    <t>7104382</t>
+  </si>
+  <si>
+    <t>7104383</t>
+  </si>
+  <si>
+    <t>7104384</t>
+  </si>
+  <si>
+    <t>7104385</t>
+  </si>
+  <si>
+    <t>7104386</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Core Learning Space: K-12 Elementary/Middle School</t>
+  </si>
+  <si>
+    <t>7104388</t>
+  </si>
+  <si>
+    <t>1000090960</t>
+  </si>
+  <si>
+    <t>7104389</t>
+  </si>
+  <si>
+    <t>7104390</t>
+  </si>
+  <si>
+    <t>7104391</t>
+  </si>
+  <si>
+    <t>7104392</t>
+  </si>
+  <si>
+    <t>7104393</t>
+  </si>
+  <si>
+    <t>7104394</t>
+  </si>
+  <si>
+    <t>7104395</t>
+  </si>
+  <si>
+    <t>7104396</t>
+  </si>
+  <si>
+    <t>7104397</t>
+  </si>
+  <si>
+    <t>7104398</t>
+  </si>
+  <si>
+    <t>7104399</t>
+  </si>
+  <si>
+    <t>7104400</t>
+  </si>
+  <si>
+    <t>7104401</t>
+  </si>
+  <si>
+    <t>7104402</t>
+  </si>
+  <si>
+    <t>7104403</t>
+  </si>
+  <si>
+    <t>7c0j3JzWyaFrW0dHf8mugOhl</t>
+  </si>
+  <si>
+    <t>7104404</t>
+  </si>
+  <si>
+    <t>7104405</t>
+  </si>
+  <si>
+    <t>7104406</t>
+  </si>
+  <si>
+    <t>7104407</t>
+  </si>
+  <si>
+    <t>7104408</t>
+  </si>
+  <si>
+    <t>0000000010000000000433599</t>
+  </si>
+  <si>
+    <t>E9B9990D7259CEF1823A0AF82116B5DF</t>
+  </si>
+  <si>
+    <t>E9B9990D7259D0F1823A0AF82116B5DF</t>
+  </si>
+  <si>
+    <t>7104409</t>
+  </si>
+  <si>
+    <t>7104410</t>
+  </si>
+  <si>
+    <t>7104411</t>
+  </si>
+  <si>
+    <t>DOCHOLDERL-1000090960</t>
+  </si>
+  <si>
+    <t>7104412</t>
+  </si>
+  <si>
+    <t>965101</t>
+  </si>
+  <si>
+    <t>7104413</t>
+  </si>
+  <si>
+    <t>2004639</t>
+  </si>
+  <si>
+    <t>7104414</t>
+  </si>
+  <si>
+    <t>15303548</t>
+  </si>
+  <si>
+    <t>539279</t>
+  </si>
+  <si>
+    <t>38679</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Industrial Manufacturing</t>
+  </si>
+  <si>
+    <t>Educational: University, Public</t>
+  </si>
+  <si>
+    <t>1000090961</t>
+  </si>
+  <si>
+    <t>MachineTestProject-City-Leed-US</t>
+  </si>
+  <si>
+    <t>312 Wilson Streets</t>
+  </si>
+  <si>
+    <t>B &amp; B Associates, Inc.</t>
+  </si>
+  <si>
+    <t>1000090962</t>
+  </si>
+  <si>
+    <t>LEED for Cities Registration</t>
+  </si>
+  <si>
+    <t>000000000000004954</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>MachineTestProject-Transit-Above-US</t>
+  </si>
+  <si>
+    <t>1 mount road</t>
+  </si>
+  <si>
+    <t>A &amp; A Dealers</t>
+  </si>
+  <si>
+    <t>1000090963</t>
   </si>
 </sst>
 </file>
@@ -7685,33 +8030,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.9765625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.76171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.66796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="27.8359375" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="8.515625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.4140625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.74609375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.1171875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.62109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -7727,22 +8072,22 @@
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="17.8203125" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="15.32421875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="26.3203125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="23.2421875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.06640625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
     <col min="55" max="55" customWidth="true" width="5.42578125" collapsed="true"/>
     <col min="56" max="56" customWidth="true" width="5.7109375" collapsed="true"/>
     <col min="57" max="57" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="58" max="58" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="59" max="59" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="19.51953125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="31.05078125" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.3828125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.46484375" collapsed="true"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
     <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
   </cols>
@@ -7949,13 +8294,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2052</v>
+        <v>2425</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2079</v>
+        <v>2342</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2049</v>
+        <v>2429</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1793</v>
@@ -7967,7 +8312,7 @@
         <v>2051</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2050</v>
+        <v>2436</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1836</v>
@@ -7980,28 +8325,28 @@
         <v>1809</v>
       </c>
       <c r="L2" t="s">
-        <v>1878</v>
+        <v>2407</v>
       </c>
       <c r="M2" t="s">
-        <v>1879</v>
+        <v>2408</v>
       </c>
       <c r="N2" t="s">
-        <v>1877</v>
+        <v>2406</v>
       </c>
       <c r="O2" t="s">
-        <v>2080</v>
+        <v>2400</v>
       </c>
       <c r="Q2" t="s">
-        <v>2270</v>
+        <v>2416</v>
       </c>
       <c r="R2" t="s">
-        <v>2206</v>
+        <v>2418</v>
       </c>
       <c r="S2" t="s">
         <v>1919</v>
       </c>
       <c r="T2" t="s">
-        <v>1921</v>
+        <v>2421</v>
       </c>
       <c r="U2" t="s">
         <v>2293</v>
@@ -8010,19 +8355,19 @@
         <v>2294</v>
       </c>
       <c r="W2" t="s">
-        <v>2048</v>
+        <v>2431</v>
       </c>
       <c r="X2" t="s">
-        <v>1756</v>
+        <v>2430</v>
       </c>
       <c r="Y2" t="s">
         <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>1920</v>
+        <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2321</v>
+        <v>2337</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -8076,28 +8421,28 @@
         <v>155</v>
       </c>
       <c r="AT2" t="s">
-        <v>2075</v>
+        <v>2432</v>
       </c>
       <c r="AU2" t="s">
         <v>156</v>
       </c>
       <c r="AV2" t="s">
-        <v>1729</v>
+        <v>2434</v>
       </c>
       <c r="AW2" t="s">
         <v>90</v>
       </c>
       <c r="AX2" t="s">
-        <v>1794</v>
+        <v>234</v>
       </c>
       <c r="AY2" t="s">
-        <v>2076</v>
+        <v>2382</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2077</v>
+        <v>1971</v>
       </c>
       <c r="BA2" t="s">
-        <v>1730</v>
+        <v>2435</v>
       </c>
       <c r="BB2" t="s">
         <v>155</v>
@@ -8118,25 +8463,25 @@
         <v>1713</v>
       </c>
       <c r="BH2" t="s">
-        <v>2078</v>
+        <v>2433</v>
       </c>
       <c r="BI2" t="s">
-        <v>1880</v>
+        <v>2412</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1877</v>
+        <v>2406</v>
       </c>
       <c r="BK2" t="s">
-        <v>1878</v>
+        <v>2329</v>
       </c>
       <c r="BL2" t="s">
-        <v>1879</v>
+        <v>2330</v>
       </c>
       <c r="BM2" t="s">
-        <v>2268</v>
+        <v>2419</v>
       </c>
       <c r="BN2" t="s">
-        <v>2144</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">

--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6380" uniqueCount="2437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6388" uniqueCount="2444">
   <si>
     <t>FileID</t>
   </si>
@@ -7352,6 +7352,27 @@
   </si>
   <si>
     <t>1000090963</t>
+  </si>
+  <si>
+    <t>BP02</t>
+  </si>
+  <si>
+    <t>LEED O+M Transit : Registration</t>
+  </si>
+  <si>
+    <t>000000000000004983</t>
+  </si>
+  <si>
+    <t>1000090964</t>
+  </si>
+  <si>
+    <t>Parksmart : Registration</t>
+  </si>
+  <si>
+    <t>000000000000004984</t>
+  </si>
+  <si>
+    <t>Bearer tsE0cH1oHqViImJv4X1pBtxQf0D5i4</t>
   </si>
 </sst>
 </file>
@@ -8035,7 +8056,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.9765625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.4296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
@@ -8056,7 +8077,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.91796875" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -8309,7 +8330,7 @@
         <v>1795</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2051</v>
+        <v>2440</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2436</v>
@@ -8355,19 +8376,19 @@
         <v>2294</v>
       </c>
       <c r="W2" t="s">
-        <v>2431</v>
+        <v>2442</v>
       </c>
       <c r="X2" t="s">
-        <v>2430</v>
+        <v>2441</v>
       </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>2437</v>
       </c>
       <c r="Z2" t="s">
         <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2337</v>
+        <v>2443</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>

--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6388" uniqueCount="2444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="2453">
   <si>
     <t>FileID</t>
   </si>
@@ -7373,6 +7373,33 @@
   </si>
   <si>
     <t>Bearer tsE0cH1oHqViImJv4X1pBtxQf0D5i4</t>
+  </si>
+  <si>
+    <t>Bearer uCZPolEYrUQH1n4lMf3140e3imTOaW</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>1000090967</t>
+  </si>
+  <si>
+    <t>Bearer Mpt1D9HxoZ7HCD3ecHlBJFI9w87ZWS</t>
+  </si>
+  <si>
+    <t>Bearer MdcR6FHjdweePCGC3gBFHRl44OIEg3</t>
+  </si>
+  <si>
+    <t>Bearer kzNdsSmqiFMEG3sSrXQcgKpDDD4Yf6</t>
+  </si>
+  <si>
+    <t>Bearer GsKhXTI52DiadvsMPnNSx37S90gVRc</t>
+  </si>
+  <si>
+    <t>Retail: Restaurant/Cafeteria</t>
   </si>
 </sst>
 </file>
@@ -8077,7 +8104,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.91796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="41.26953125" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -8093,18 +8120,18 @@
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="17.8203125" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.25" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="23.2421875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="28.06640625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="10.8125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="24.86328125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.3046875" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
     <col min="55" max="55" customWidth="true" width="5.42578125" collapsed="true"/>
     <col min="56" max="56" customWidth="true" width="5.7109375" collapsed="true"/>
     <col min="57" max="57" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="58" max="58" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="59" max="59" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="31.05078125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="35.19921875" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.3828125" collapsed="true"/>
@@ -8315,7 +8342,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2425</v>
+        <v>2447</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2342</v>
@@ -8376,19 +8403,19 @@
         <v>2294</v>
       </c>
       <c r="W2" t="s">
-        <v>2442</v>
+        <v>2048</v>
       </c>
       <c r="X2" t="s">
-        <v>2441</v>
+        <v>1756</v>
       </c>
       <c r="Y2" t="s">
-        <v>2437</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
         <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2443</v>
+        <v>2451</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -8448,7 +8475,7 @@
         <v>156</v>
       </c>
       <c r="AV2" t="s">
-        <v>2434</v>
+        <v>1729</v>
       </c>
       <c r="AW2" t="s">
         <v>90</v>
@@ -8457,13 +8484,13 @@
         <v>234</v>
       </c>
       <c r="AY2" t="s">
-        <v>2382</v>
+        <v>2452</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1971</v>
+        <v>2077</v>
       </c>
       <c r="BA2" t="s">
-        <v>2435</v>
+        <v>1730</v>
       </c>
       <c r="BB2" t="s">
         <v>155</v>
@@ -8484,7 +8511,7 @@
         <v>1713</v>
       </c>
       <c r="BH2" t="s">
-        <v>2433</v>
+        <v>1731</v>
       </c>
       <c r="BI2" t="s">
         <v>2412</v>

--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="2454">
   <si>
     <t>FileID</t>
   </si>
@@ -7400,6 +7400,9 @@
   </si>
   <si>
     <t>Retail: Restaurant/Cafeteria</t>
+  </si>
+  <si>
+    <t>Bearer MNwjSdWR4R71ilH1dtLQGc0RzXOU3O</t>
   </si>
 </sst>
 </file>
@@ -8104,7 +8107,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.41015625" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -8415,7 +8418,7 @@
         <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>

--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6412" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="2454">
   <si>
     <t>FileID</t>
   </si>
@@ -7400,6 +7400,9 @@
   </si>
   <si>
     <t>Retail: Restaurant/Cafeteria</t>
+  </si>
+  <si>
+    <t>Bearer xvWvcMnOHYpf4GsZKqq6GigtmRS5cm</t>
   </si>
 </sst>
 </file>
@@ -8104,7 +8107,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="41.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.41015625" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -8415,7 +8418,7 @@
         <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>

--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="2454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6414" uniqueCount="2455">
   <si>
     <t>FileID</t>
   </si>
@@ -7403,6 +7403,9 @@
   </si>
   <si>
     <t>Bearer MNwjSdWR4R71ilH1dtLQGc0RzXOU3O</t>
+  </si>
+  <si>
+    <t>Bearer wMgmU5CNJB793hnVA7Sqepqq0x0Aa1</t>
   </si>
 </sst>
 </file>
@@ -8107,7 +8110,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.41015625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="42.63671875" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -8418,7 +8421,7 @@
         <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>

--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6414" uniqueCount="2455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6457" uniqueCount="2491">
   <si>
     <t>FileID</t>
   </si>
@@ -7406,6 +7406,114 @@
   </si>
   <si>
     <t>Bearer wMgmU5CNJB793hnVA7Sqepqq0x0Aa1</t>
+  </si>
+  <si>
+    <t>Bearer y00WgJUHVS68duHRvisugbLxVNO7tV</t>
+  </si>
+  <si>
+    <t>Public Assembly: Other Assembly</t>
+  </si>
+  <si>
+    <t>Investor: Investment Manager</t>
+  </si>
+  <si>
+    <t>API Project-US70161</t>
+  </si>
+  <si>
+    <t>1000169661</t>
+  </si>
+  <si>
+    <t>fakc0pDrG6xnAlOy72UG4DyY</t>
+  </si>
+  <si>
+    <t>965224</t>
+  </si>
+  <si>
+    <t>7104570</t>
+  </si>
+  <si>
+    <t>7104572</t>
+  </si>
+  <si>
+    <t>7104573</t>
+  </si>
+  <si>
+    <t>7104574</t>
+  </si>
+  <si>
+    <t>7104575</t>
+  </si>
+  <si>
+    <t>7104576</t>
+  </si>
+  <si>
+    <t>7104577</t>
+  </si>
+  <si>
+    <t>7104578</t>
+  </si>
+  <si>
+    <t>7104579</t>
+  </si>
+  <si>
+    <t>7104580</t>
+  </si>
+  <si>
+    <t>7104581</t>
+  </si>
+  <si>
+    <t>7104582</t>
+  </si>
+  <si>
+    <t>7104583</t>
+  </si>
+  <si>
+    <t>7104584</t>
+  </si>
+  <si>
+    <t>7104585</t>
+  </si>
+  <si>
+    <t>7104586</t>
+  </si>
+  <si>
+    <t>7104591</t>
+  </si>
+  <si>
+    <t>7104592</t>
+  </si>
+  <si>
+    <t>7104593</t>
+  </si>
+  <si>
+    <t>7104594</t>
+  </si>
+  <si>
+    <t>7104595</t>
+  </si>
+  <si>
+    <t>7104596</t>
+  </si>
+  <si>
+    <t>7104597</t>
+  </si>
+  <si>
+    <t>7104598</t>
+  </si>
+  <si>
+    <t>7104599</t>
+  </si>
+  <si>
+    <t>7104600</t>
+  </si>
+  <si>
+    <t>7104604</t>
+  </si>
+  <si>
+    <t>7104605</t>
+  </si>
+  <si>
+    <t>7104606</t>
   </si>
 </sst>
 </file>
@@ -8098,9 +8206,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="37.66796875" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="37.328125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="27.8359375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="27.64453125" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="14.4140625" collapsed="true"/>
@@ -8110,7 +8218,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="37.63671875" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="8.51171875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="42.63671875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.41796875" collapsed="true"/>
     <col min="28" max="28" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="6.140625" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="7.140625" collapsed="true"/>
@@ -8126,18 +8234,18 @@
     <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
     <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="10.8125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="24.86328125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.3046875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
     <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
     <col min="55" max="55" customWidth="true" width="5.42578125" collapsed="true"/>
     <col min="56" max="56" customWidth="true" width="5.7109375" collapsed="true"/>
     <col min="57" max="57" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="58" max="58" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="59" max="59" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="35.19921875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="35.796875" collapsed="true"/>
     <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
     <col min="62" max="62" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
     <col min="63" max="63" bestFit="true" customWidth="true" width="37.3828125" collapsed="true"/>
@@ -8351,7 +8459,7 @@
         <v>2447</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2342</v>
+        <v>2459</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2429</v>
@@ -8388,13 +8496,13 @@
         <v>2406</v>
       </c>
       <c r="O2" t="s">
-        <v>2400</v>
+        <v>2460</v>
       </c>
       <c r="Q2" t="s">
-        <v>2416</v>
+        <v>2461</v>
       </c>
       <c r="R2" t="s">
-        <v>2418</v>
+        <v>2490</v>
       </c>
       <c r="S2" t="s">
         <v>1919</v>
@@ -8421,7 +8529,7 @@
         <v>2420</v>
       </c>
       <c r="AA2" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -8475,7 +8583,7 @@
         <v>155</v>
       </c>
       <c r="AT2" t="s">
-        <v>2432</v>
+        <v>181</v>
       </c>
       <c r="AU2" t="s">
         <v>156</v>
@@ -8487,13 +8595,13 @@
         <v>90</v>
       </c>
       <c r="AX2" t="s">
-        <v>234</v>
+        <v>1794</v>
       </c>
       <c r="AY2" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2077</v>
+        <v>2457</v>
       </c>
       <c r="BA2" t="s">
         <v>1730</v>
@@ -8517,7 +8625,7 @@
         <v>1713</v>
       </c>
       <c r="BH2" t="s">
-        <v>1731</v>
+        <v>2458</v>
       </c>
       <c r="BI2" t="s">
         <v>2412</v>
